--- a/2018SuperRugby/Weekly Forecasts/Round_3.xlsx
+++ b/2018SuperRugby/Weekly Forecasts/Round_3.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RugbyPredictifier\2018SuperRugby\Weekly Forecasts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="1" r:id="rId1"/>
     <sheet name="Saturday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Chance of Winning</t>
   </si>
@@ -134,12 +139,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0%"/>
     <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +405,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -446,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,9 +491,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,6 +543,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -695,9 +744,14 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -720,41 +774,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.6175316</v>
+        <v>0.61753159999999996</v>
       </c>
       <c r="C2" s="6">
-        <v>0.3663222</v>
+        <v>0.36632219999999999</v>
       </c>
       <c r="E2" s="6">
-        <v>0.2042258</v>
+        <v>0.20422580000000001</v>
       </c>
       <c r="F2" s="6">
-        <v>0.780784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
+        <v>0.78078400000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>45.4683668</v>
+        <v>45.468366799999998</v>
       </c>
       <c r="C3" s="7">
-        <v>37.5155306</v>
+        <v>37.515530599999998</v>
       </c>
       <c r="E3" s="7">
-        <v>26.5183296</v>
+        <v>26.518329600000001</v>
       </c>
       <c r="F3" s="7">
-        <v>44.208521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
+        <v>44.208520999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -771,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,7 +842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -805,7 +859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -822,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -839,7 +893,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -856,7 +910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -873,7 +927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -890,7 +944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -907,7 +961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -924,7 +978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -941,7 +995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -958,7 +1012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -975,7 +1029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1060,7 +1114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1077,24 +1131,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.3137602</v>
+        <v>0.31376019999999999</v>
       </c>
       <c r="C23" s="6">
-        <v>0.1308654</v>
+        <v>0.13086539999999999</v>
       </c>
       <c r="E23" s="6">
-        <v>0.0296022</v>
+        <v>2.9602199999999999E-2</v>
       </c>
       <c r="F23" s="6">
-        <v>0.5597496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.55974959999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1162,7 @@
         <v>0.1054834</v>
       </c>
       <c r="F24" s="6">
-        <v>0.07848579999999999</v>
+        <v>7.8485799999999994E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1125,9 +1179,22 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
@@ -1177,42 +1244,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.204109</v>
+        <v>0.20410900000000001</v>
       </c>
       <c r="C2" s="6">
-        <v>0.7809088</v>
+        <v>0.78090879999999996</v>
       </c>
       <c r="E2" s="6">
-        <v>0.8029146</v>
+        <v>0.80291460000000003</v>
       </c>
       <c r="F2" s="6">
-        <v>0.1834552</v>
+        <v>0.18345520000000001</v>
       </c>
       <c r="H2" s="6">
-        <v>0.3551708</v>
+        <v>0.35517080000000001</v>
       </c>
       <c r="I2" s="6">
-        <v>0.6122788</v>
+        <v>0.61227880000000001</v>
       </c>
       <c r="K2" s="6">
-        <v>0.3137186</v>
+        <v>0.31371860000000001</v>
       </c>
       <c r="L2" s="6">
-        <v>0.6697096</v>
+        <v>0.66970960000000002</v>
       </c>
       <c r="N2" s="6">
-        <v>0.3080402</v>
+        <v>0.30804019999999999</v>
       </c>
       <c r="O2" s="6">
-        <v>0.6736204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
+        <v>0.67362040000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1220,34 +1287,34 @@
         <v>26.5100388</v>
       </c>
       <c r="C3" s="7">
-        <v>44.1987354</v>
+        <v>44.198735399999997</v>
       </c>
       <c r="E3" s="7">
-        <v>42.4773252</v>
+        <v>42.477325200000003</v>
       </c>
       <c r="F3" s="7">
-        <v>23.7557594</v>
+        <v>23.755759399999999</v>
       </c>
       <c r="H3" s="7">
-        <v>23.8602182</v>
+        <v>23.860218199999998</v>
       </c>
       <c r="I3" s="7">
         <v>30.3666406</v>
       </c>
       <c r="K3" s="7">
-        <v>25.8423598</v>
+        <v>25.842359800000001</v>
       </c>
       <c r="L3" s="7">
-        <v>35.641162</v>
+        <v>35.641162000000001</v>
       </c>
       <c r="N3" s="7">
-        <v>25.0117818</v>
+        <v>25.011781800000001</v>
       </c>
       <c r="O3" s="7">
-        <v>34.7407196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
+        <v>34.740719599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1387,7 +1454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1562,7 +1629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1737,7 +1804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1807,7 +1874,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1912,42 +1979,42 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.0295402</v>
+        <v>2.9540199999999999E-2</v>
       </c>
       <c r="C23" s="6">
-        <v>0.559676</v>
+        <v>0.55967599999999995</v>
       </c>
       <c r="E23" s="6">
-        <v>0.625611</v>
+        <v>0.62561100000000003</v>
       </c>
       <c r="F23" s="6">
-        <v>0.008134000000000001</v>
+        <v>8.1340000000000006E-3</v>
       </c>
       <c r="H23" s="6">
         <v>0.1118108</v>
       </c>
       <c r="I23" s="6">
-        <v>0.2187214</v>
+        <v>0.21872140000000001</v>
       </c>
       <c r="K23" s="6">
-        <v>0.0671706</v>
+        <v>6.7170599999999997E-2</v>
       </c>
       <c r="L23" s="6">
         <v>0.3686876</v>
       </c>
       <c r="N23" s="6">
-        <v>0.0491502</v>
+        <v>4.9150199999999998E-2</v>
       </c>
       <c r="O23" s="6">
-        <v>0.3759754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.37597540000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1955,10 +2022,10 @@
         <v>0.105465</v>
       </c>
       <c r="C24" s="6">
-        <v>0.0785218</v>
+        <v>7.8521800000000003E-2</v>
       </c>
       <c r="E24" s="6">
-        <v>0.0780516</v>
+        <v>7.8051599999999999E-2</v>
       </c>
       <c r="F24" s="6">
         <v>0.1069932</v>
@@ -1970,13 +2037,13 @@
         <v>0.1111458</v>
       </c>
       <c r="K24" s="6">
-        <v>0.1331838</v>
+        <v>0.13318379999999999</v>
       </c>
       <c r="L24" s="6">
         <v>0.112594</v>
       </c>
       <c r="N24" s="6">
-        <v>0.1356456</v>
+        <v>0.13564560000000001</v>
       </c>
       <c r="O24" s="6">
         <v>0.114506</v>
